--- a/Data files for UniMelb Project - data until 2021/excel/NT.xlsx
+++ b/Data files for UniMelb Project - data until 2021/excel/NT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeChat Files\wangqi674000\FileStorage\File\2022-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhihan/Documents/GitHub/DS-Project-Group-19/Data files for UniMelb Project - data until 2021/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFDCAE-69EC-4080-90A8-8B638EED9385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224610F0-70F6-8444-86BD-200E4540EE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09B31E81-E359-B447-AFC0-483A26337DBD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{09B31E81-E359-B447-AFC0-483A26337DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2322,9 +2322,14 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -2467,7 +2472,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -2555,7 +2560,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>149</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>150</v>
       </c>
@@ -2588,7 +2593,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>151</v>
       </c>
@@ -2599,7 +2604,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>152</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>156</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>157</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>158</v>
       </c>
@@ -2676,7 +2681,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
@@ -2687,7 +2692,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>160</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>161</v>
       </c>
@@ -2709,7 +2714,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>162</v>
       </c>
@@ -2720,7 +2725,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>163</v>
       </c>
@@ -2731,7 +2736,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>164</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>165</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>166</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>167</v>
       </c>
@@ -2775,7 +2780,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>172</v>
       </c>
@@ -2830,7 +2835,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>173</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>174</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>176</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>177</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>178</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -2907,7 +2912,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>180</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>182</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>183</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>184</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>185</v>
       </c>
@@ -2973,7 +2978,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>186</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>187</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>188</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>189</v>
       </c>
@@ -3017,7 +3022,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3028,7 +3033,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>191</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>192</v>
       </c>
@@ -3050,7 +3055,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>193</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>195</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>196</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>197</v>
       </c>
@@ -3105,7 +3110,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>198</v>
       </c>
@@ -3116,7 +3121,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>199</v>
       </c>
@@ -3127,7 +3132,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>200</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>201</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>202</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>203</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>204</v>
       </c>
@@ -3182,7 +3187,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>205</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>206</v>
       </c>
@@ -3204,7 +3209,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>207</v>
       </c>
@@ -3215,7 +3220,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>208</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>209</v>
       </c>
@@ -3237,7 +3242,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>210</v>
       </c>
@@ -3248,7 +3253,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>211</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>212</v>
       </c>
@@ -3270,7 +3275,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>213</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>214</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>215</v>
       </c>
@@ -3303,7 +3308,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>216</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>217</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>218</v>
       </c>
@@ -3336,7 +3341,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>219</v>
       </c>
@@ -3347,7 +3352,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>220</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>221</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>222</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>223</v>
       </c>
@@ -3391,7 +3396,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>225</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>226</v>
       </c>
@@ -3424,7 +3429,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>227</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>228</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>229</v>
       </c>
@@ -3457,7 +3462,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>230</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>231</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>232</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>233</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>234</v>
       </c>
@@ -3512,7 +3517,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>235</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>236</v>
       </c>
@@ -3534,7 +3539,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>237</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>238</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
@@ -3567,7 +3572,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>240</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>241</v>
       </c>
@@ -3589,7 +3594,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>242</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>243</v>
       </c>
@@ -3611,7 +3616,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>244</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>245</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>246</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>247</v>
       </c>
@@ -3655,7 +3660,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>248</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>249</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>250</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>251</v>
       </c>
@@ -3699,7 +3704,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>252</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>253</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -3732,7 +3737,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>257</v>
       </c>
@@ -3765,7 +3770,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>258</v>
       </c>
@@ -3776,7 +3781,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>259</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -3798,7 +3803,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>261</v>
       </c>
@@ -3809,7 +3814,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>262</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>263</v>
       </c>
@@ -3831,7 +3836,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>264</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>265</v>
       </c>
@@ -3853,7 +3858,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>266</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>267</v>
       </c>
@@ -3875,7 +3880,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>268</v>
       </c>
@@ -3886,7 +3891,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>269</v>
       </c>
@@ -3897,7 +3902,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>270</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>271</v>
       </c>
@@ -3919,7 +3924,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>272</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>273</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>274</v>
       </c>
@@ -3949,7 +3954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>275</v>
       </c>
@@ -3960,7 +3965,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>276</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>277</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>278</v>
       </c>
@@ -3993,7 +3998,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>279</v>
       </c>
@@ -4004,7 +4009,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>280</v>
       </c>
@@ -4015,7 +4020,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>281</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>282</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>283</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>284</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>285</v>
       </c>
@@ -4070,7 +4075,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>286</v>
       </c>
@@ -4081,7 +4086,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>287</v>
       </c>
@@ -4092,7 +4097,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>288</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>289</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>290</v>
       </c>
@@ -4125,7 +4130,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>291</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>292</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>293</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>294</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>295</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>296</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>297</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>298</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>299</v>
       </c>
@@ -4224,7 +4229,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>300</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>301</v>
       </c>
@@ -4246,7 +4251,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>302</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>303</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>304</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>305</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>306</v>
       </c>
@@ -4301,7 +4306,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>307</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>308</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>309</v>
       </c>
@@ -4334,7 +4339,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>310</v>
       </c>
@@ -4345,7 +4350,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>311</v>
       </c>
@@ -4356,7 +4361,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>312</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>313</v>
       </c>
@@ -4378,7 +4383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>314</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>315</v>
       </c>
@@ -4400,7 +4405,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>316</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>317</v>
       </c>
@@ -4422,7 +4427,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>318</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>319</v>
       </c>
@@ -4444,7 +4449,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>320</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>321</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>322</v>
       </c>
@@ -4477,7 +4482,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>323</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>324</v>
       </c>
@@ -4499,7 +4504,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>325</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>326</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>327</v>
       </c>
@@ -4532,7 +4537,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>328</v>
       </c>
@@ -4543,7 +4548,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>329</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>330</v>
       </c>
@@ -4565,7 +4570,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>331</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>332</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>333</v>
       </c>
@@ -4598,7 +4603,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>334</v>
       </c>
@@ -4609,7 +4614,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>335</v>
       </c>
@@ -4620,7 +4625,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>336</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>337</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>338</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>339</v>
       </c>
@@ -4664,7 +4669,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>340</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>341</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>342</v>
       </c>
@@ -4697,7 +4702,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>343</v>
       </c>
@@ -4708,7 +4713,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>344</v>
       </c>
@@ -4719,7 +4724,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>345</v>
       </c>
@@ -4730,7 +4735,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>346</v>
       </c>
@@ -4741,7 +4746,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>347</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>348</v>
       </c>
@@ -4763,7 +4768,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>349</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>350</v>
       </c>
@@ -4785,7 +4790,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>351</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>352</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>353</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>354</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>355</v>
       </c>
@@ -4840,7 +4845,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>356</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>357</v>
       </c>
@@ -4862,7 +4867,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>358</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>359</v>
       </c>
@@ -4884,7 +4889,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>360</v>
       </c>
@@ -4895,7 +4900,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>361</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>362</v>
       </c>
@@ -4917,7 +4922,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>363</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>364</v>
       </c>
@@ -4939,7 +4944,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>365</v>
       </c>
@@ -4950,7 +4955,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>366</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>367</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>368</v>
       </c>
@@ -4983,7 +4988,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>369</v>
       </c>
@@ -4994,7 +4999,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>370</v>
       </c>
@@ -5005,7 +5010,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>371</v>
       </c>
@@ -5016,7 +5021,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>372</v>
       </c>
@@ -5027,7 +5032,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>373</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>374</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>375</v>
       </c>
@@ -5060,7 +5065,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>376</v>
       </c>
@@ -5071,7 +5076,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>377</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>378</v>
       </c>
@@ -5093,7 +5098,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>379</v>
       </c>
@@ -5104,7 +5109,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>380</v>
       </c>
@@ -5115,7 +5120,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>381</v>
       </c>
@@ -5126,7 +5131,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>382</v>
       </c>
@@ -5137,7 +5142,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>383</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>384</v>
       </c>
@@ -5159,7 +5164,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>385</v>
       </c>
@@ -5170,7 +5175,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>386</v>
       </c>
@@ -5181,7 +5186,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>387</v>
       </c>
@@ -5192,7 +5197,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>388</v>
       </c>
@@ -5203,7 +5208,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>389</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>390</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>391</v>
       </c>
@@ -5236,7 +5241,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>392</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>393</v>
       </c>
@@ -5258,7 +5263,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>394</v>
       </c>
@@ -5269,7 +5274,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>395</v>
       </c>
@@ -5280,7 +5285,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>396</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>397</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>398</v>
       </c>
@@ -5313,7 +5318,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>399</v>
       </c>
@@ -5324,7 +5329,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>400</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>401</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>402</v>
       </c>
@@ -5357,7 +5362,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>403</v>
       </c>
@@ -5368,7 +5373,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>404</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>405</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>406</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>407</v>
       </c>
@@ -5412,7 +5417,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>408</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>409</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>410</v>
       </c>
@@ -5445,7 +5450,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>411</v>
       </c>
@@ -5456,7 +5461,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
         <v>412</v>
       </c>
@@ -5467,7 +5472,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
         <v>413</v>
       </c>
@@ -5478,7 +5483,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>414</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>415</v>
       </c>
@@ -5497,7 +5502,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>416</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>417</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -5552,7 +5557,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>424</v>
       </c>
@@ -5596,7 +5601,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>425</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>426</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>427</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>428</v>
       </c>
@@ -5640,7 +5645,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>429</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>430</v>
       </c>
@@ -5662,7 +5667,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>431</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>432</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>433</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>434</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>435</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>436</v>
       </c>
@@ -5728,7 +5733,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>437</v>
       </c>
@@ -5739,7 +5744,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>438</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>439</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>440</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>441</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>442</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>443</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>444</v>
       </c>
@@ -5816,7 +5821,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>445</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>446</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>447</v>
       </c>
@@ -5849,7 +5854,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>448</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>449</v>
       </c>
@@ -5871,7 +5876,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>450</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>451</v>
       </c>
@@ -5893,7 +5898,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>452</v>
       </c>
@@ -5904,7 +5909,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>453</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>454</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>455</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>456</v>
       </c>
@@ -5948,7 +5953,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>457</v>
       </c>
@@ -5959,7 +5964,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>458</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>459</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>460</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>461</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>462</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>463</v>
       </c>
@@ -6025,7 +6030,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>464</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>465</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>466</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>467</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>468</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>469</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>470</v>
       </c>
@@ -6102,7 +6107,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>471</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>472</v>
       </c>
@@ -6124,7 +6129,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>473</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>474</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>475</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>476</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>477</v>
       </c>
@@ -6179,7 +6184,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>478</v>
       </c>
@@ -6190,7 +6195,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>479</v>
       </c>
@@ -6201,7 +6206,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>480</v>
       </c>
@@ -6212,7 +6217,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>481</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>482</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>483</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>484</v>
       </c>
@@ -6256,7 +6261,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>485</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>486</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>487</v>
       </c>
@@ -6289,7 +6294,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>488</v>
       </c>
@@ -6300,7 +6305,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>489</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>490</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>491</v>
       </c>
@@ -6333,7 +6338,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>492</v>
       </c>
@@ -6344,7 +6349,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>493</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>494</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>495</v>
       </c>
@@ -6377,7 +6382,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>496</v>
       </c>
@@ -6388,7 +6393,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>497</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>498</v>
       </c>
@@ -6410,7 +6415,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>499</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>500</v>
       </c>
@@ -6432,7 +6437,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>501</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>502</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>503</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>504</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>505</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>506</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>507</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>508</v>
       </c>
@@ -6520,7 +6525,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>509</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>510</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>511</v>
       </c>
@@ -6553,7 +6558,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>512</v>
       </c>
@@ -6564,7 +6569,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>513</v>
       </c>
@@ -6575,7 +6580,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>514</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>515</v>
       </c>
@@ -6597,7 +6602,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>516</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>517</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>518</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>519</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>520</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>521</v>
       </c>
@@ -6663,7 +6668,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>522</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>523</v>
       </c>
@@ -6685,7 +6690,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>524</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>525</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>526</v>
       </c>
@@ -6718,7 +6723,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>527</v>
       </c>
@@ -6729,7 +6734,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>528</v>
       </c>
@@ -6740,7 +6745,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>529</v>
       </c>
@@ -6751,7 +6756,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>530</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>531</v>
       </c>
@@ -6773,7 +6778,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>532</v>
       </c>
@@ -6784,7 +6789,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>533</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>534</v>
       </c>
@@ -6806,7 +6811,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>535</v>
       </c>
@@ -6817,7 +6822,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>536</v>
       </c>
@@ -6828,7 +6833,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>537</v>
       </c>
@@ -6839,7 +6844,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>538</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>539</v>
       </c>
@@ -6861,7 +6866,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>540</v>
       </c>
@@ -6872,7 +6877,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>541</v>
       </c>
@@ -6883,7 +6888,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>542</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>543</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>544</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
         <v>545</v>
       </c>
@@ -6927,7 +6932,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
         <v>546</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
         <v>547</v>
       </c>
@@ -6949,7 +6954,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
         <v>548</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
         <v>549</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
         <v>550</v>
       </c>
@@ -6982,7 +6987,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>551</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>552</v>
       </c>
@@ -7004,7 +7009,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>553</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>554</v>
       </c>
@@ -7023,7 +7028,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>555</v>
       </c>
@@ -7034,7 +7039,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>556</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
         <v>557</v>
       </c>
@@ -7056,7 +7061,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
         <v>558</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>559</v>
       </c>
@@ -7078,7 +7083,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>560</v>
       </c>
@@ -7089,7 +7094,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>561</v>
       </c>
@@ -7100,7 +7105,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>562</v>
       </c>
@@ -7111,7 +7116,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>563</v>
       </c>
@@ -7122,7 +7127,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>564</v>
       </c>
@@ -7133,7 +7138,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>565</v>
       </c>
@@ -7144,7 +7149,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>566</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>567</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>568</v>
       </c>
@@ -7177,7 +7182,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>569</v>
       </c>
@@ -7188,7 +7193,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>570</v>
       </c>
@@ -7199,7 +7204,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>571</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>572</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>573</v>
       </c>
@@ -7232,7 +7237,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>574</v>
       </c>
@@ -7243,7 +7248,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>575</v>
       </c>
@@ -7254,7 +7259,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>576</v>
       </c>
@@ -7265,7 +7270,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>577</v>
       </c>
@@ -7276,7 +7281,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>578</v>
       </c>
@@ -7287,7 +7292,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>579</v>
       </c>
@@ -7298,7 +7303,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>580</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>581</v>
       </c>
@@ -7320,7 +7325,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>582</v>
       </c>
@@ -7331,7 +7336,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>583</v>
       </c>
@@ -7342,7 +7347,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>584</v>
       </c>
@@ -7353,7 +7358,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>585</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>586</v>
       </c>
@@ -7375,7 +7380,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>587</v>
       </c>
@@ -7386,7 +7391,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>588</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>589</v>
       </c>
@@ -7405,7 +7410,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>590</v>
       </c>
@@ -7416,7 +7421,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>591</v>
       </c>
@@ -7427,7 +7432,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>592</v>
       </c>
@@ -7438,7 +7443,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>593</v>
       </c>
@@ -7449,7 +7454,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>594</v>
       </c>
@@ -7460,7 +7465,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>595</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>596</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>597</v>
       </c>
@@ -7493,7 +7498,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>598</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>599</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>600</v>
       </c>
@@ -7526,7 +7531,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>601</v>
       </c>
@@ -7534,7 +7539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>122</v>
       </c>
@@ -7545,7 +7550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
         <v>124</v>
       </c>
@@ -7556,7 +7561,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
         <v>125</v>
       </c>
@@ -7567,7 +7572,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>126</v>
       </c>
@@ -7578,7 +7583,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
         <v>127</v>
       </c>
